--- a/CapstoneHoursLog.xlsx
+++ b/CapstoneHoursLog.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,7 +449,9 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4">
+        <v>5</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -463,7 +465,9 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4">
+        <v>1.5</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -549,7 +553,7 @@
       </c>
       <c r="B9" s="3">
         <f>B2+B3+B4+B5+B6+B7+B8</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ref="C9:J9" si="0">C2+C3+C4+C5+C6+C7+C8</f>

--- a/CapstoneHoursLog.xlsx
+++ b/CapstoneHoursLog.xlsx
@@ -466,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -553,7 +553,7 @@
       </c>
       <c r="B9" s="3">
         <f>B2+B3+B4+B5+B6+B7+B8</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ref="C9:J9" si="0">C2+C3+C4+C5+C6+C7+C8</f>

--- a/CapstoneHoursLog.xlsx
+++ b/CapstoneHoursLog.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,7 +481,9 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -495,7 +497,9 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -553,7 +557,7 @@
       </c>
       <c r="B9" s="3">
         <f>B2+B3+B4+B5+B6+B7+B8</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ref="C9:J9" si="0">C2+C3+C4+C5+C6+C7+C8</f>

--- a/CapstoneHoursLog.xlsx
+++ b/CapstoneHoursLog.xlsx
@@ -44,10 +44,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,18 +81,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,18 +99,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,7 +433,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,145 +472,147 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>5</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <f>B2+B3+B4+B5+B6+B7+B8</f>
-        <v>10</v>
-      </c>
-      <c r="C9" s="3">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4">
         <f t="shared" ref="C9:J9" si="0">C2+C3+C4+C5+C6+C7+C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/CapstoneHoursLog.xlsx
+++ b/CapstoneHoursLog.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +475,9 @@
       <c r="B2" s="3">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -552,7 +554,9 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -566,7 +570,9 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -582,11 +588,11 @@
       </c>
       <c r="B9" s="4">
         <f>B2+B3+B4+B5+B6+B7+B8</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" ref="C9:J9" si="0">C2+C3+C4+C5+C6+C7+C8</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>

--- a/CapstoneHoursLog.xlsx
+++ b/CapstoneHoursLog.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +476,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -592,7 +592,7 @@
       </c>
       <c r="C9" s="4">
         <f t="shared" ref="C9:J9" si="0">C2+C3+C4+C5+C6+C7+C8</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>

--- a/CapstoneHoursLog.xlsx
+++ b/CapstoneHoursLog.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,7 +493,9 @@
       <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>4.5</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -509,7 +511,9 @@
       <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>2.5</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -592,7 +596,7 @@
       </c>
       <c r="C9" s="4">
         <f t="shared" ref="C9:J9" si="0">C2+C3+C4+C5+C6+C7+C8</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>

--- a/CapstoneHoursLog.xlsx
+++ b/CapstoneHoursLog.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,7 +529,9 @@
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>4.5</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -545,7 +547,9 @@
       <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -561,7 +565,9 @@
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -577,7 +583,9 @@
       <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -596,7 +604,7 @@
       </c>
       <c r="C9" s="4">
         <f t="shared" ref="C9:J9" si="0">C2+C3+C4+C5+C6+C7+C8</f>
-        <v>14</v>
+        <v>25.5</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>

--- a/CapstoneHoursLog.xlsx
+++ b/CapstoneHoursLog.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,7 +478,9 @@
       <c r="C2" s="3">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <v>9</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -608,7 +610,7 @@
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>

--- a/CapstoneHoursLog.xlsx
+++ b/CapstoneHoursLog.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,11 +479,17 @@
         <v>7</v>
       </c>
       <c r="D2" s="3">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="E2" s="3">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3">
+        <v>8</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -498,10 +504,18 @@
       <c r="C3" s="3">
         <v>4.5</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -516,10 +530,18 @@
       <c r="C4" s="3">
         <v>2.5</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="D4" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -534,9 +556,15 @@
       <c r="C5" s="3">
         <v>4.5</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -552,9 +580,15 @@
       <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -570,9 +604,15 @@
       <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -588,9 +628,15 @@
       <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -610,19 +656,19 @@
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="0"/>

--- a/CapstoneHoursLog.xlsx
+++ b/CapstoneHoursLog.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,7 +565,9 @@
       <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -668,7 +670,7 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="0"/>

--- a/CapstoneHoursLog.xlsx
+++ b/CapstoneHoursLog.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,7 +591,9 @@
       <c r="F6" s="3">
         <v>4</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -615,7 +617,9 @@
       <c r="F7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -639,7 +643,9 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -670,7 +676,7 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="0"/>

--- a/CapstoneHoursLog.xlsx
+++ b/CapstoneHoursLog.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,7 +490,9 @@
       <c r="G2" s="3">
         <v>8</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3">
+        <v>7</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
@@ -516,7 +518,9 @@
       <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
@@ -680,7 +684,7 @@
       </c>
       <c r="H9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="0"/>
